--- a/דרישות+בדיקות.xlsx
+++ b/דרישות+בדיקות.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Requirement description</t>
   </si>
@@ -86,19 +86,537 @@
     <t>Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Sucssesful ID verfication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open "User identification menu"
+    <t xml:space="preserve">Open "User identification menu".
+Insert order number:245789.
+Press "OK".
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order number
+"245789" has 
+been accepted 
+in the system.
+The screen displays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Welcome"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> message.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Order number:
+245789 is 
+defined in the
+DB.
+</t>
+  </si>
+  <si>
+    <t>Order number 
+245789 is valid.</t>
+  </si>
+  <si>
+    <t>Open "User identification menu".
+Insert order number:245789.
+Press "OK".</t>
+  </si>
+  <si>
+    <t>Order number 
+245789 was 
+already used.</t>
+  </si>
+  <si>
+    <t>InsertOccupiedOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SucssesfulIDVerfication </t>
+  </si>
+  <si>
+    <t>InsertWrongOrderNumber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system throws out
+a warning message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"This
+order number has been
+already used"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The system cleans the field.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Open "User identification menu".
+Insert order number:245589.
+Press "OK".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order number
+245589 is not
+defined in the
+DB. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order number
+245589 is not 
+valid. </t>
+  </si>
+  <si>
+    <t>CountNumberOfVisitorsInOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system reads "5" visitors registered in the reservation: 245789.
+The system adds 5 to the total number of visitors in the park.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of vistiors 
+prior to the process was 1238.
+The number has
+been updated to 1243.
+</t>
+  </si>
+  <si>
+    <t>The updated
+number is valid.</t>
+  </si>
+  <si>
+    <t>FullCapcity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system throws a 
+message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"We are very sorry , but the park has 
+reached its maximum 
+capacity. Please come back another day."</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of
+visitors at the park
+reached the
+maximum. </t>
+  </si>
+  <si>
+    <t>ExceedsTheLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system reads "5" visitors registered in the reservation: 245789.
+The system checks if
+5 plus the number of visitors currently at
+the park doesn't exceed the limit. The
+new number exceeds the limit, the amount of visitors at the park
+doesn't change.
+</t>
+  </si>
+  <si>
+    <t>The system doesn't
+take any reservations.
+The system locks the
+identification menu.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system throws out
+a warning message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"This
+order number doesn't
+exist in the DB".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The system cleans the field.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The updated number of visitors in the park doesn't 
+exceed the maximum. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of
+visitors at the park is almost 
+full, the new number that has been calculated exceeds the maximum.
+</t>
+  </si>
+  <si>
+    <t>Example: The current
+number of visitors is 1498
+and the maximum number
+of visitors allowed is 1500.
+Adding 5 to 1498
+will exceed the maximum number.</t>
+  </si>
+  <si>
+    <t>SucssesfullFastIdentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swipe the card 
+on the card reader.
+</t>
+  </si>
+  <si>
+    <t>Member id and order 
+number are valid.</t>
+  </si>
+  <si>
+    <t>FailFastIdentification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system displays a
+message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"We are very
+sorry, but the park has
+reached its maximum capacity.
+Please come back another
+day"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The system
+clears the field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system verifies the
+member id and order
+number at the DB.
+The system displays a
+message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Welcome (name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system verifies the
+member id and order
+number at the DB.
+The system displays a
+message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Member ID, or order number is incorrect".</t>
+    </r>
+  </si>
+  <si>
+    <t>Member id or order 
+number is not valid.</t>
+  </si>
+  <si>
+    <t>FastIdentificationOrderDoesntExist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system verifies the
+member id and order
+number at the DB.
+The system displays a
+message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Order number doesn't exist".</t>
+    </r>
+  </si>
+  <si>
+    <t>The member ID
+is valid in the DB
+but the order number
+doesn't exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The member did
+not place an
+order in the 
+system. </t>
+  </si>
+  <si>
+    <t>The ID reader identify
+the number on the card.</t>
+  </si>
+  <si>
+    <t>The member ID and
+order number are
+verified at the DB.</t>
+  </si>
+  <si>
+    <t>The member ID, or
+the order number is
+incorrect.</t>
+  </si>
+  <si>
+    <t>The card is valid.</t>
+  </si>
+  <si>
+    <t>MechanizedIDReadFailed</t>
+  </si>
+  <si>
+    <t>There is a physical
+problem with the card, 
+or a wrong card has
+been inserted to the
+machine.</t>
+  </si>
+  <si>
+    <t>The card is not valid.</t>
+  </si>
+  <si>
+    <t>MechanizedIDReadSuccessfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system verifies the
+number that was scanned and checks if it is an actual member ID
+in the DB  
+</t>
+  </si>
+  <si>
+    <t>The card number is marked as active in the DB.</t>
+  </si>
+  <si>
+    <t>The ID reader attempts to scan the member ID.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system attempts to scan the member ID but fails and throws a warning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Error reading card".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>UnplannedVisitSuccessfull</t>
+  </si>
+  <si>
+    <t>Open "Unscheduled visit".
+Insert name: "John Smith".
+Insert number of visitors: 5.
+Press "OK".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system successfully adds five people to the number of visitors to the park.
+The system displays a message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Welcome to the park John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>The park isn't full.
+The details that was
+entered are legit.</t>
+  </si>
+  <si>
+    <t>5 pepole was added to 
+the number of visitors in 
+the park.</t>
+  </si>
+  <si>
+    <t>UnplannedVisitFailure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system tries to add
+5 people to the number 
+of visitors in the park
+but fails because the park
+is full or will exceed the 
+maximum after the addition.
+The system throws a warning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"We are very
+sorry, but the park has
+reached its maximum capacity.
+Please come back another
+day".</t>
+    </r>
+  </si>
+  <si>
+    <t>The park is full
+or will be full
+after the addition.</t>
+  </si>
+  <si>
+    <t>Nothing changed. The
+visit was not allowed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -167,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -175,6 +693,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -186,11 +707,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,29 +1026,30 @@
     <col min="1" max="1" width="22.8984375" customWidth="1"/>
     <col min="2" max="2" width="83.59765625" customWidth="1"/>
     <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
     <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="24.59765625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -543,7 +1088,7 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
@@ -587,7 +1132,7 @@
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3">
@@ -657,88 +1202,330 @@
       <c r="C20" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="8" t="s">
+    <row r="24" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="3">
+      <c r="I24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
+    <row r="25" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="E25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
+    <row r="26" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="E26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+    <row r="27" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="E27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+    <row r="28" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E28" s="8"/>
+      <c r="F28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+    <row r="29" spans="1:10" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="E29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="15">
         <v>6</v>
       </c>
+    </row>
+    <row r="30" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="E31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="E34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="E35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="E36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
